--- a/bin/tests/data/spreadsheets/test_SGA_updatedClassDb_Kraken2.xlsx
+++ b/bin/tests/data/spreadsheets/test_SGA_updatedClassDb_Kraken2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t xml:space="preserve">patient ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">meconium</t>
   </si>
   <si>
-    <t xml:space="preserve">Kraken2</t>
+    <t xml:space="preserve">Kraken 2</t>
   </si>
   <si>
     <t xml:space="preserve">MTX</t>
@@ -398,7 +398,7 @@
   <dimension ref="A1:AB754"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z25" activeCellId="0" sqref="Z25"/>
+      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,8 +682,9 @@
       <c r="Y3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>31</v>
+      <c r="Z3" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>32</v>
@@ -775,8 +776,9 @@
       <c r="Y4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z4" s="8" t="s">
-        <v>31</v>
+      <c r="Z4" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>32</v>
@@ -868,8 +870,9 @@
       <c r="Y5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z5" s="8" t="s">
-        <v>31</v>
+      <c r="Z5" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>32</v>
@@ -961,8 +964,9 @@
       <c r="Y6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z6" s="8" t="s">
-        <v>31</v>
+      <c r="Z6" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>32</v>
@@ -1054,8 +1058,9 @@
       <c r="Y7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z7" s="8" t="s">
-        <v>31</v>
+      <c r="Z7" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>32</v>
@@ -1147,8 +1152,9 @@
       <c r="Y8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="8" t="s">
-        <v>31</v>
+      <c r="Z8" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>32</v>
@@ -1240,8 +1246,9 @@
       <c r="Y9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z9" s="8" t="s">
-        <v>31</v>
+      <c r="Z9" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>32</v>
@@ -1332,8 +1339,9 @@
       <c r="Y10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z10" s="8" t="s">
-        <v>31</v>
+      <c r="Z10" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA10" s="8" t="s">
         <v>32</v>
@@ -1425,8 +1433,9 @@
       <c r="Y11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z11" s="8" t="s">
-        <v>31</v>
+      <c r="Z11" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA11" s="8" t="s">
         <v>32</v>
@@ -1518,8 +1527,9 @@
       <c r="Y12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z12" s="8" t="s">
-        <v>31</v>
+      <c r="Z12" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA12" s="8" t="s">
         <v>32</v>
@@ -1601,8 +1611,9 @@
       <c r="Y13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Z13" s="8" t="s">
-        <v>31</v>
+      <c r="Z13" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>32</v>
@@ -1688,8 +1699,9 @@
       <c r="Y14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="Z14" s="8" t="s">
-        <v>31</v>
+      <c r="Z14" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA14" s="8" t="s">
         <v>32</v>
@@ -1781,8 +1793,9 @@
       <c r="Y15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z15" s="8" t="s">
-        <v>31</v>
+      <c r="Z15" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>32</v>
@@ -1874,8 +1887,9 @@
       <c r="Y16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z16" s="8" t="s">
-        <v>31</v>
+      <c r="Z16" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA16" s="8" t="s">
         <v>32</v>
@@ -1967,8 +1981,9 @@
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z17" s="8" t="s">
-        <v>31</v>
+      <c r="Z17" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA17" s="8" t="s">
         <v>32</v>
@@ -2060,8 +2075,9 @@
       <c r="Y18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z18" s="8" t="s">
-        <v>31</v>
+      <c r="Z18" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA18" s="8" t="s">
         <v>32</v>
@@ -2153,8 +2169,9 @@
       <c r="Y19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z19" s="8" t="s">
-        <v>31</v>
+      <c r="Z19" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA19" s="8" t="s">
         <v>32</v>
@@ -2246,8 +2263,9 @@
       <c r="Y20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z20" s="8" t="s">
-        <v>31</v>
+      <c r="Z20" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA20" s="8" t="s">
         <v>32</v>
@@ -2339,8 +2357,9 @@
       <c r="Y21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z21" s="8" t="s">
-        <v>31</v>
+      <c r="Z21" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA21" s="8" t="s">
         <v>32</v>
@@ -2432,8 +2451,9 @@
       <c r="Y22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z22" s="8" t="s">
-        <v>31</v>
+      <c r="Z22" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA22" s="8" t="s">
         <v>32</v>
@@ -2525,8 +2545,9 @@
       <c r="Y23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z23" s="8" t="s">
-        <v>31</v>
+      <c r="Z23" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>32</v>
@@ -2618,8 +2639,9 @@
       <c r="Y24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z24" s="8" t="s">
-        <v>31</v>
+      <c r="Z24" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA24" s="8" t="s">
         <v>32</v>
@@ -2704,8 +2726,9 @@
       <c r="Y25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z25" s="8" t="s">
-        <v>31</v>
+      <c r="Z25" s="8" t="str">
+        <f aca="false">Z$2</f>
+        <v>Kraken 2</v>
       </c>
       <c r="AA25" s="8" t="s">
         <v>32</v>
